--- a/Optimization/Lag/res1.xlsx
+++ b/Optimization/Lag/res1.xlsx
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.05625</v>
+        <v>3.823880597014925</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.187942008018982</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.187943262411348</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.083333333333332</v>
+        <v>6.688669950738917</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.2583868018743516</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.2583892617449681</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -416,13 +416,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.516666666666667</v>
+        <v>2.362885398487493</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>30.21030217650518</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -430,13 +427,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1401923076923077</v>
+        <v>7.886510041682456</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.408371361755741</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.40837143862117</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -444,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>38.80745341614907</v>
+        <v>3.190476190476189</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.9767440719984517</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.9767441860465134</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -458,13 +455,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.180623973727421</v>
+        <v>13.30177319587629</v>
       </c>
       <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
+        <v>23.82778885198503</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -472,13 +466,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.354395604395604</v>
+        <v>8.642553191489359</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.750713266343549</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1.750716332378225</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -486,13 +480,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>37.80773480662984</v>
+        <v>7.956730769230769</v>
       </c>
       <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>15.54146337401203</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -500,13 +491,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.976323719328455</v>
+        <v>3.64053862508859</v>
       </c>
       <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+        <v>21.09484531619208</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -514,13 +502,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.858066502463054</v>
+        <v>5.101357466063348</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.478260321375775</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.478260869565218</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -528,13 +516,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.54066985645933</v>
+        <v>4.910204081632653</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.130434764367113</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2.130434782608699</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -542,13 +530,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.342170671085336</v>
+        <v>3.717752007136485</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.7479483109094556</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.7479492915734554</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -556,13 +544,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.707027027027027</v>
+        <v>0.592307692307692</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.9718861229760094</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5.697297844072709</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -570,13 +558,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.098175182481752</v>
+        <v>5.774162371134023</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3.092575551830759</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>3.092581238503984</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -584,13 +572,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.948881789137381</v>
+        <v>0.6592592592592592</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.4687486046988818</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -598,13 +586,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.122065727699531</v>
+        <v>0.8928571428571437</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.888186788991135</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1.888186942056912</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -612,13 +600,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.395</v>
+        <v>24.63890160183067</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.121692052854435</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.1216931216931201</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -626,13 +614,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.691532258064514</v>
+        <v>13.75220588235294</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
+        <v>15.96214460932675</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -640,13 +625,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.152923538230885</v>
+        <v>14.78981332475056</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1.381102145919211</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1.381103727246458</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -654,13 +639,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.278846153846152</v>
+        <v>6.599999999999999</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.9180326422991119</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.9180327868852487</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -668,13 +653,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.9453125</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
+        <v>11.73688446939852</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -682,13 +664,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.65154994259472</v>
+        <v>17.94173806609547</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
+        <v>13.94626858355079</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -696,13 +675,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.51951219512195</v>
+        <v>1.263643197193686</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.9039067831826575</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.9039206570587339</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -710,13 +689,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>0.5936085972850682</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.8267174649351006</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.8267375467611764</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -724,13 +703,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>19.85313817911188</v>
+        <v>4.468631897203326</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>8.397260062197311</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>25.17123287671235</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -738,13 +717,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.364993215739484</v>
+        <v>1.777052868391452</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2.647784146643868</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2.647785130541692</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -752,13 +731,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2.785229202037351</v>
+        <v>5.629870129870129</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>3.205297455843571</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3.205298013245034</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -766,13 +745,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6.768889646938428</v>
+        <v>1.008172043010753</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>3.074359963637932</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3.074380165289256</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -780,13 +759,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.593749999999999</v>
+        <v>11.33108910891089</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1.836078019713582</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1.836078076499401</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -794,13 +773,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>13.1604938271605</v>
+        <v>36.43376623376624</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.06692143194655387</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.06692160611854092</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -808,13 +787,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3.711785898095728</v>
+        <v>2.559313725490196</v>
       </c>
       <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
+        <v>43.28823526989903</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -822,13 +798,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>27.84675324675325</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1.392824198858719</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1.392828685258968</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -836,13 +812,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3.670309653916211</v>
+        <v>2.957789535567311</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>5.779403241014824</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>5.779408810009441</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -850,13 +826,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.882318501170968</v>
+        <v>1.791836734693878</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.5468748912910844</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.5468750000000009</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -864,13 +840,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>30.34714575485366</v>
+        <v>3.18574712643678</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>8.300559700061829</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>8.300559910414322</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -878,13 +854,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3.823118279569893</v>
+        <v>5.603242408646425</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2.718010709456642</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>2.718010742953702</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -892,13 +868,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.080000000000001</v>
+        <v>2.183857264231095</v>
       </c>
       <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
+        <v>20.73311254769639</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -906,13 +879,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>7.005000000000001</v>
       </c>
       <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
+        <v>8.581105946291151</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -920,13 +890,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2.904205607476635</v>
+        <v>12.32167832167832</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.3245899797826759</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.3245901639344275</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -934,13 +904,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.565217391304347</v>
+        <v>1.248148148148148</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.4272135281721399</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.4272151898734204</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -948,13 +918,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>8.183703393380812</v>
+        <v>2.947368421052632</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>9.5294110230292</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>12.70588235294117</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -962,13 +932,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6.574534161490684</v>
+        <v>5.070245398773006</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1.632224862060172</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1.632225762403275</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -976,13 +946,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5.58305830583058</v>
+        <v>0.4565878378378372</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>4.592006973251543</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>4.592007289768269</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -990,13 +960,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7.777777777777782</v>
+        <v>24.45294117647059</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.03193566375229295</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>0.03193612774451182</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1004,13 +974,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1.219512195121951</v>
+        <v>2.10864197530864</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>6.870788182069418</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>6.87080002829455</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1018,13 +988,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6.393454545454546</v>
+        <v>18.20266666666667</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.5661340672428317</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>0.5661343161343204</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1032,13 +1002,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>2.387596899224806</v>
+        <v>5.838048780487805</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1.435570949807897</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1.435574229691879</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1046,13 +1016,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>8.98875351452671</v>
+        <v>6.649999999999999</v>
       </c>
       <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
+        <v>33.01612903225807</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1060,13 +1027,10 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>3.328264758497316</v>
+        <v>0.09308109382366814</v>
       </c>
       <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
+        <v>25.30470388987433</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1074,13 +1038,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>7.076555023923445</v>
+        <v>5.571343873517787</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.669269971085809</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>0.6692712190786576</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1088,13 +1052,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.9328971962616822</v>
+        <v>0.2441690962099115</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.4086184941556201</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1.118425405226599</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1102,13 +1066,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.77943925233645</v>
+        <v>1.955844155844156</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.4875206600681814</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>0.4875222523289011</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1116,13 +1080,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>9</v>
+        <v>2.034313725490196</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1.218282531683368</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1.217630853994493</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1130,13 +1094,10 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>4.833333333333334</v>
+        <v>3.316152286551025</v>
       </c>
       <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
+        <v>16.38953622487021</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1144,13 +1105,10 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5124937531234384</v>
+        <v>9.831355932203389</v>
       </c>
       <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
+        <v>31.13514709135147</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1158,13 +1116,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>4.923076923076922</v>
+        <v>0.8845582163501238</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>7.923748640432681</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>7.92375165709235</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1172,13 +1130,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7.885254988913525</v>
+        <v>6.136082474226805</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1.930347447284833</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1.930348258706464</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1186,13 +1144,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5.420454545454546</v>
+        <v>1.076142131979697</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>4.771864235937475</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>4.771867700026458</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1200,13 +1158,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>18.66117647058823</v>
+        <v>6.798202247191011</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1.850813260114062</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1.850813743218815</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1214,13 +1172,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>24.72413793103448</v>
+        <v>41.24275362318841</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.1179476565225777</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>0.1179487179487175</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1228,13 +1186,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4.356756756756756</v>
+        <v>9.59678862858647</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.6954283182507126</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.6954296991273239</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1242,13 +1200,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>8</v>
+        <v>6.279687500000005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>2.827037197520301</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>2.827039627039623</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1256,13 +1214,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>9.319148936170215</v>
+        <v>10.02288930581614</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1.735449368930773</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1.735449735449734</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1270,13 +1228,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>8.323086984957488</v>
+        <v>1.12716049382716</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.55504049612275</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.5550479671082726</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1284,13 +1242,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>11.5351724137931</v>
+        <v>5.602862254025045</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>2.744678553912808</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>2.74468085106383</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1298,13 +1256,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.732713400095374</v>
+        <v>7.580574324324324</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>0.7872337229303294</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>0.7872340425531945</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1312,13 +1270,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2.890365448504983</v>
+        <v>5.895546558704453</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.6524516171358119</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>0.6524528301886789</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1326,13 +1284,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5.608144311484194</v>
+        <v>11.8125</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>17.30545256872842</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>60.47584415584414</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1340,13 +1298,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5.706806282722513</v>
+        <v>1.435898734177215</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>0.3976894182490165</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>0.3976986695433276</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1354,13 +1312,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1025882352941181</v>
+        <v>3.302213868003342</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>5.225412528220165</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>5.22541276612553</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1368,13 +1326,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>20.31567644953471</v>
+        <v>7.376028202115163</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>0.2791627321078334</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>0.2791642484039443</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1382,13 +1340,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>3.682808716707021</v>
+        <v>4.216476774758983</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>8.328101445520929</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>8.328105667744509</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1396,13 +1354,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6.346694137478929</v>
+        <v>0.2500000000000006</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1.333328316724675</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>0.9339263024142337</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1410,13 +1368,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.8527364757987979</v>
+        <v>20.96470588235294</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1.259185719583936</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1.259186585052426</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1424,13 +1382,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>14.0093808630394</v>
+        <v>4.858781362007168</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>0.4592543009407599</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>0.4592592592592588</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1438,13 +1396,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6.126984126984127</v>
+        <v>2.571836734693877</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1.061665638572086</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>1.061667177000864</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1452,13 +1410,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.253918495297806</v>
+        <v>6.123688155922039</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.8535234082606635</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>0.8535235194188964</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1466,13 +1424,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>12.76847290640394</v>
+        <v>1.409860465116279</v>
       </c>
       <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
+        <v>29.24831269808493</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1480,13 +1435,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>10.79663865546219</v>
+        <v>10.22598454870925</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>14.55559904364917</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>28.67334246575345</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1494,13 +1449,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>4.096438356164385</v>
+        <v>1.483265027322404</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>2.257749059885693</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>2.25776602775942</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1508,13 +1463,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.328903654485046</v>
+        <v>2.032036613272311</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1.649612107796862</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1.649617764834368</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1522,13 +1477,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2.709536307961505</v>
+        <v>1.389840723202755</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.7044441146343114</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>0.704446381865738</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1536,13 +1491,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5.508529945553539</v>
+        <v>38.57908163265306</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.03343940997943662</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.0334394904458577</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1550,13 +1505,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6.27223230490018</v>
+        <v>14.5010752688172</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>4.299704920547576</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>4.299705733983522</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1564,13 +1519,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>3.25</v>
+        <v>0.1875816993464057</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>8.529360353179587</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>8.529411764705884</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1578,13 +1533,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.411840968020739</v>
+        <v>17.55800415800416</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.3694893505832368</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>0.3694898998980953</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1592,13 +1547,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>3.5</v>
+        <v>0.4357142857142855</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>0.9900127872973385</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>0.9900166389351064</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1606,13 +1561,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6.864734299516909</v>
+        <v>11.43846153846154</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>0.0895518203793344</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>0.08955223880597174</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1620,13 +1575,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4.435897435897436</v>
+        <v>8.685714285714285</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>8.733333302144352</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>8.733333333333334</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1634,13 +1589,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>30</v>
+        <v>10.01159420289855</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.7509466923755781</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>0.7509467040673243</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1648,13 +1603,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.839080459770115</v>
+        <v>2.736258278145695</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.3192728178265511</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>0.3166639780609799</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1662,13 +1617,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.245639534883725</v>
+        <v>9.955606617647058</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>0.8707458477712464</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>0.8707482993197324</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1676,13 +1631,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>12.48</v>
+        <v>3.953888582460011</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>3.023856923671557</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>3.023857868020304</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1690,13 +1645,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>8.592592592592593</v>
+        <v>9.783333333333331</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>5.910527956964195</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>5.910529072812992</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1704,13 +1659,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.7109289617486336</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>2.253233788262197</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>2.253249429981064</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1718,13 +1673,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>11.48011363636364</v>
+        <v>0.8919298245614034</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>3.048732712707569</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>3.04878048780488</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1732,13 +1687,10 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>14.86688311688312</v>
+        <v>11.94512195121952</v>
       </c>
       <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
+        <v>8.207865160393782</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1746,13 +1698,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>2.488095238095238</v>
+        <v>0.1692766592095452</v>
       </c>
       <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
+        <v>11.21130503692181</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1760,13 +1709,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.7032085561497325</v>
+        <v>4.45024154589372</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.06545129606736388</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.06545247581104086</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1774,13 +1723,10 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>2.619642857142857</v>
+        <v>5.769105409153953</v>
       </c>
       <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
+        <v>46.98588376633128</v>
       </c>
     </row>
   </sheetData>
